--- a/Experiment/Experiment.xlsx
+++ b/Experiment/Experiment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CB97EA8-647C-5E40-BC9C-DE26D568212B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6EC1EF-8371-BF4B-A8E0-C6111A4E3A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16740" activeTab="1" xr2:uid="{D98CCD55-3C64-534B-9B48-C9369F78002F}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16680" activeTab="1" xr2:uid="{D98CCD55-3C64-534B-9B48-C9369F78002F}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_Timeline" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -100,16 +100,22 @@
     <t>Field Soil</t>
   </si>
   <si>
-    <t>Potentiall free</t>
-  </si>
-  <si>
     <t>Growing soil</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Seeds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -139,10 +145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F89B754-C2EB-024C-8838-5DDEA62020C2}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,11 +620,22 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Experiment/Experiment.xlsx
+++ b/Experiment/Experiment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6EC1EF-8371-BF4B-A8E0-C6111A4E3A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598DF625-4EA7-1842-8DFD-63A38D7088B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16680" activeTab="1" xr2:uid="{D98CCD55-3C64-534B-9B48-C9369F78002F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Order Pots</t>
   </si>
   <si>
-    <t>Feburary 2021</t>
-  </si>
-  <si>
     <t>Start to germinate seeds</t>
   </si>
   <si>
@@ -91,22 +88,49 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Pots X200</t>
-  </si>
-  <si>
     <t>41.50 per 100</t>
   </si>
   <si>
-    <t>Field Soil</t>
-  </si>
-  <si>
-    <t>Growing soil</t>
-  </si>
-  <si>
     <t>Free</t>
   </si>
   <si>
-    <t>Seeds</t>
+    <t>Checklist</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>5 replicates</t>
+  </si>
+  <si>
+    <t>7 replicates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 replicates </t>
+  </si>
+  <si>
+    <t>160 pots needed thus $81.50</t>
+  </si>
+  <si>
+    <t>224 pots needed thus $124.50</t>
+  </si>
+  <si>
+    <t>320 pots needed thus $166</t>
+  </si>
+  <si>
+    <t>Growing soil (BroadwayStore@HuntersGardenCentre.com)</t>
+  </si>
+  <si>
+    <t>$9.99 per 28 L</t>
+  </si>
+  <si>
+    <t>Seeds (spencer.reitenbach@gov.bc.ca)</t>
+  </si>
+  <si>
+    <t>Field Soil (Alex Fraser)</t>
+  </si>
+  <si>
+    <t>Pots (https://www.leevalley.com/en-ca/shop/garden/planting/potting/10643-4-inch-plastic-pots?item=BL292)</t>
   </si>
 </sst>
 </file>
@@ -464,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9892459B-4D90-E542-94F6-CD321B5F38A2}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,108 +500,114 @@
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>44166</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>44287</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>44317</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" s="1">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" s="2">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
-        <v>44287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
       <c r="B13" s="2">
-        <v>44317</v>
+        <v>44280</v>
       </c>
     </row>
   </sheetData>
@@ -587,56 +617,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F89B754-C2EB-024C-8838-5DDEA62020C2}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3">
-        <v>25.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3">
+        <v>19.98</v>
+      </c>
+      <c r="D4" s="3">
+        <v>19.98</v>
+      </c>
+      <c r="E4" s="3">
+        <v>29.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
